--- a/Левак/Расписание экзаменов 2 курс летний семестр 2023.xlsx
+++ b/Левак/Расписание экзаменов 2 курс летний семестр 2023.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242C565-F058-4513-A6D8-74056E91655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0261D-7B63-47F8-A965-FFA33937ADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2 курс'!$13:$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2 курс'!$A$1:$N$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1953,76 +1966,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2368,8 +2381,8 @@
   </sheetPr>
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="25" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" zoomScalePageLayoutView="37" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="25" zoomScaleNormal="55" zoomScaleSheetLayoutView="25" zoomScalePageLayoutView="37" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2387,13 +2400,13 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C2" s="6"/>
@@ -2402,11 +2415,11 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C3" s="6"/>
@@ -2416,11 +2429,11 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C4" s="6"/>
@@ -2429,11 +2442,11 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="7"/>
@@ -2442,23 +2455,23 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -2470,10 +2483,10 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -2485,10 +2498,10 @@
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -2500,10 +2513,10 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -2515,10 +2528,10 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -2530,10 +2543,10 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
@@ -2586,7 +2599,7 @@
       <c r="B14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="16"/>
@@ -2617,7 +2630,7 @@
       <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -2655,311 +2668,311 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="36"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="2:14" ht="221.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="37"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="2:14" ht="141" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="261" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="35"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="2:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="35"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="2:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="48" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="N23" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="199.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="35"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="2:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="284.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="35"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="26"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="2:14" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="32"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="27"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="2:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="15"/>
@@ -2967,65 +2980,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="J1:N5"/>
-    <mergeCell ref="F6:I11"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="K19:K20"/>
@@ -3042,6 +2996,65 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="J1:N5"/>
+    <mergeCell ref="F6:I11"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="17" orientation="landscape" r:id="rId1"/>
